--- a/data/trans_dic/P25A$voluntad-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P25A$voluntad-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>55,45; 74,38</t>
+          <t>55,36; 75,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>57,0; 75,8</t>
+          <t>58,11; 77,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>53,35; 74,57</t>
+          <t>53,14; 75,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>50,65; 80,97</t>
+          <t>51,26; 81,37</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>67,16; 88,56</t>
+          <t>64,51; 88,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>55,47; 78,56</t>
+          <t>55,36; 78,77</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>57,01; 73,59</t>
+          <t>57,65; 74,03</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>63,68; 79,59</t>
+          <t>63,61; 78,71</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>56,45; 73,05</t>
+          <t>57,69; 73,66</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>59,39; 79,92</t>
+          <t>60,09; 79,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>63,73; 83,07</t>
+          <t>63,39; 83,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>52,5; 74,49</t>
+          <t>52,47; 75,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>44,96; 76,1</t>
+          <t>45,59; 76,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>59,73; 84,75</t>
+          <t>58,58; 85,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>52,8; 77,23</t>
+          <t>51,82; 76,05</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>57,62; 75,26</t>
+          <t>57,37; 75,35</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>66,22; 82,08</t>
+          <t>66,47; 81,53</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>56,89; 72,98</t>
+          <t>57,1; 73,13</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>43,83; 63,2</t>
+          <t>44,04; 63,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>60,84; 76,91</t>
+          <t>62,2; 77,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>51,27; 71,71</t>
+          <t>51,44; 70,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>32,66; 71,69</t>
+          <t>32,13; 73,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>71,21; 95,46</t>
+          <t>66,76; 94,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>50,63; 93,92</t>
+          <t>52,96; 100,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>45,51; 62,4</t>
+          <t>45,31; 63,12</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>65,15; 78,66</t>
+          <t>64,78; 79,04</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>54,22; 73,02</t>
+          <t>53,39; 72,24</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>47,08; 58,94</t>
+          <t>47,28; 58,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>61,38; 72,25</t>
+          <t>61,03; 71,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>49,58; 63,42</t>
+          <t>49,97; 63,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>61,47; 84,16</t>
+          <t>61,5; 83,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>66,35; 83,25</t>
+          <t>67,59; 84,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>69,66; 87,55</t>
+          <t>69,72; 87,4</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>51,0; 62,08</t>
+          <t>51,51; 61,96</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>64,47; 73,47</t>
+          <t>64,74; 73,85</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>57,2; 68,02</t>
+          <t>57,08; 68,16</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>41,34; 64,37</t>
+          <t>40,18; 64,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>49,82; 67,81</t>
+          <t>49,88; 68,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>49,45; 67,8</t>
+          <t>50,27; 68,73</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>45,54; 78,44</t>
+          <t>46,21; 79,41</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>72,77; 91,44</t>
+          <t>71,88; 91,62</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>51,88; 75,28</t>
+          <t>52,04; 75,65</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>46,92; 66,67</t>
+          <t>46,58; 66,5</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>60,51; 74,43</t>
+          <t>61,21; 74,81</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>54,08; 68,12</t>
+          <t>53,8; 68,39</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>30,84; 100,0</t>
+          <t>31,33; 100,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>31,56; 100,0</t>
+          <t>32,76; 100,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>17,29; 100,0</t>
+          <t>17,6; 100,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>52,71; 80,33</t>
+          <t>53,98; 79,45</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>58,69; 82,13</t>
+          <t>57,24; 82,19</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>46,77; 80,32</t>
+          <t>49,9; 80,34</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>56,02; 80,17</t>
+          <t>55,84; 81,74</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>60,76; 82,5</t>
+          <t>59,86; 82,83</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>50,4; 78,07</t>
+          <t>49,34; 77,98</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>53,88; 61,66</t>
+          <t>53,68; 61,66</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>63,91; 70,62</t>
+          <t>64,17; 70,85</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>56,33; 63,93</t>
+          <t>56,39; 64,1</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>60,06; 71,86</t>
+          <t>59,98; 72,58</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>72,88; 81,56</t>
+          <t>72,96; 81,6</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>64,54; 74,6</t>
+          <t>64,06; 74,58</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>56,59; 63,33</t>
+          <t>56,77; 63,52</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>67,79; 73,28</t>
+          <t>67,91; 73,2</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>60,18; 66,73</t>
+          <t>60,21; 66,87</t>
         </is>
       </c>
     </row>
@@ -1412,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo para dejar de fumar fue, al menos, por propia voluntad</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>62771</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>76066</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>60289</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>25745</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>40632</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>41543</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>88515</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>116698</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>101833</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>53077; 72167</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>65124; 86395</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>49605; 70248</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>19513; 30974</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>33352; 45648</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>33987; 48364</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>77224; 99155</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>104180; 128895</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>89279; 113990</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>55856</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>66897</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>46935</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>24774</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>40221</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>43854</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>80629</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>107117</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>90789</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>47978; 63627</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>57002; 74713</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>38224; 54955</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>18446; 30920</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>31669; 46266</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>34687; 50900</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>69016; 90641</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>95710; 117394</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>79815; 102232</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>57582</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>113146</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>60787</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>13001</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>29989</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>10328</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>70583</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>143135</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>71115</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>46997; 67446</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>100760; 125864</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>50553; 69227</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>7833; 17940</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>23478; 33133</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>6984; 13189</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>59394; 82734</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>127725; 155835</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>59515; 80526</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>144359</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>213365</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>129253</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>46196</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>85630</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>68472</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>190555</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>298995</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>197725</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>128656; 160472</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>194659; 228995</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>113813; 144292</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>38956; 52791</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>76474; 95629</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>60427; 75753</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>172797; 207850</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>279728; 319085</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>179472; 214296</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>33845</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>75061</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>63891</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>22610</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>57832</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>44876</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>56455</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>132893</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>108766</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>25550; 41073</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>63415; 87309</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>54133; 74013</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>16403; 28188</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>49917; 63628</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>36533; 53105</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>46158; 65893</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>120329; 147063</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>95710; 121659</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>4538</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>5038</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>3168</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>33518</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>43250</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>23922</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>38056</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>48288</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>27091</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>1732; 5527</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>1971; 6016</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>980; 5570</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>26442; 38919</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>34882; 50083</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>18030; 29030</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>30440; 44562</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>40076; 55456</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>20578; 32524</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>348</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>353</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>783</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>570</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>358950</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>549572</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>364322</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>165844</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>297553</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>232996</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>524794</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>847126</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>597318</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>334782; 384515</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>523706; 578177</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>341428; 388135</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>150391; 181985</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>280509; 313735</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>214306; 249483</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>496429; 555440</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>815317; 878788</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>566025; 628609</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P25A$voluntad-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P25A$voluntad-Clase-trans_dic.xlsx
@@ -1173,7 +1173,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2354,7 +2354,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
